--- a/Fama-macBeth data/Reg_factors_green.xlsx
+++ b/Fama-macBeth data/Reg_factors_green.xlsx
@@ -408,7 +408,7 @@
         <v>43479</v>
       </c>
       <c r="B2">
-        <v>0.03290075957953417</v>
+        <v>-0.03359113287600386</v>
       </c>
       <c r="C2">
         <v>-0.01251917526438262</v>
@@ -419,7 +419,7 @@
         <v>43486</v>
       </c>
       <c r="B3">
-        <v>-0.00122145857366415</v>
+        <v>0.0002554360158961619</v>
       </c>
       <c r="C3">
         <v>-0.01413281266661803</v>
@@ -430,7 +430,7 @@
         <v>43493</v>
       </c>
       <c r="B4">
-        <v>-0.0155983312849626</v>
+        <v>0.01657384192892579</v>
       </c>
       <c r="C4">
         <v>-0.04817117700556683</v>
@@ -441,7 +441,7 @@
         <v>43500</v>
       </c>
       <c r="B5">
-        <v>-0.005498415447299712</v>
+        <v>0.004949217136921702</v>
       </c>
       <c r="C5">
         <v>0.05935770132011342</v>
@@ -452,7 +452,7 @@
         <v>43507</v>
       </c>
       <c r="B6">
-        <v>-0.006516421836835109</v>
+        <v>0.007443444654560479</v>
       </c>
       <c r="C6">
         <v>-0.01014009182070874</v>
@@ -463,7 +463,7 @@
         <v>43514</v>
       </c>
       <c r="B7">
-        <v>0.02736417771396815</v>
+        <v>-0.02752112283273728</v>
       </c>
       <c r="C7">
         <v>0.1229274378448899</v>
@@ -474,7 +474,7 @@
         <v>43521</v>
       </c>
       <c r="B8">
-        <v>0.01561200656633307</v>
+        <v>-0.018911025699164</v>
       </c>
       <c r="C8">
         <v>-0.039123517262034</v>
@@ -485,7 +485,7 @@
         <v>43528</v>
       </c>
       <c r="B9">
-        <v>-0.01428730360628906</v>
+        <v>0.01379149429463031</v>
       </c>
       <c r="C9">
         <v>0.01164727867997506</v>
@@ -496,7 +496,7 @@
         <v>43535</v>
       </c>
       <c r="B10">
-        <v>0.04984101573722893</v>
+        <v>-0.04926631930292064</v>
       </c>
       <c r="C10">
         <v>0.03289475141061859</v>
@@ -507,7 +507,7 @@
         <v>43542</v>
       </c>
       <c r="B11">
-        <v>0.01379070267203464</v>
+        <v>-0.01443720227595824</v>
       </c>
       <c r="C11">
         <v>0.01582984992689696</v>
@@ -518,7 +518,7 @@
         <v>43549</v>
       </c>
       <c r="B12">
-        <v>-0.01911805644421854</v>
+        <v>0.01904022021987936</v>
       </c>
       <c r="C12">
         <v>0.02397423860469527</v>
@@ -529,7 +529,7 @@
         <v>43556</v>
       </c>
       <c r="B13">
-        <v>0.01284624382518137</v>
+        <v>-0.01622340889638236</v>
       </c>
       <c r="C13">
         <v>0.2278253251372364</v>
@@ -540,7 +540,7 @@
         <v>43563</v>
       </c>
       <c r="B14">
-        <v>-0.03938110890175953</v>
+        <v>0.04254256521162798</v>
       </c>
       <c r="C14">
         <v>-0.02368911508427751</v>
@@ -551,7 +551,7 @@
         <v>43570</v>
       </c>
       <c r="B15">
-        <v>-0.003369664525150429</v>
+        <v>0.002907323932701199</v>
       </c>
       <c r="C15">
         <v>0.04259313684585053</v>
@@ -562,7 +562,7 @@
         <v>43577</v>
       </c>
       <c r="B16">
-        <v>0.0338147017687325</v>
+        <v>-0.03303339312996475</v>
       </c>
       <c r="C16">
         <v>-0.05749690981746292</v>
@@ -573,7 +573,7 @@
         <v>43584</v>
       </c>
       <c r="B17">
-        <v>-0.03646405929701146</v>
+        <v>0.03755127865487469</v>
       </c>
       <c r="C17">
         <v>0.09020719571890701</v>
@@ -584,7 +584,7 @@
         <v>43591</v>
       </c>
       <c r="B18">
-        <v>0.006879862473280685</v>
+        <v>-0.006804930130205978</v>
       </c>
       <c r="C18">
         <v>0.04158188521423245</v>
@@ -595,7 +595,7 @@
         <v>43598</v>
       </c>
       <c r="B19">
-        <v>-0.06204070149840801</v>
+        <v>0.0641208792548577</v>
       </c>
       <c r="C19">
         <v>0.1727481137869751</v>
@@ -606,7 +606,7 @@
         <v>43605</v>
       </c>
       <c r="B20">
-        <v>-0.00180060976121824</v>
+        <v>-0.001590637085204042</v>
       </c>
       <c r="C20">
         <v>0.1248564889841088</v>
@@ -617,7 +617,7 @@
         <v>43612</v>
       </c>
       <c r="B21">
-        <v>0.04603199475297017</v>
+        <v>-0.04809307474362008</v>
       </c>
       <c r="C21">
         <v>0.06624136733703323</v>
@@ -628,7 +628,7 @@
         <v>43619</v>
       </c>
       <c r="B22">
-        <v>-0.01521881454299864</v>
+        <v>0.01447972663155529</v>
       </c>
       <c r="C22">
         <v>-0.05958932362364155</v>
@@ -639,7 +639,7 @@
         <v>43626</v>
       </c>
       <c r="B23">
-        <v>0.02322893827174707</v>
+        <v>-0.02486090910671632</v>
       </c>
       <c r="C23">
         <v>0.04748575953753931</v>
@@ -650,7 +650,7 @@
         <v>43633</v>
       </c>
       <c r="B24">
-        <v>-0.01749035351132435</v>
+        <v>0.01839709985566972</v>
       </c>
       <c r="C24">
         <v>0.1386229975109661</v>
@@ -661,7 +661,7 @@
         <v>43640</v>
       </c>
       <c r="B25">
-        <v>-0.003765763043438892</v>
+        <v>0.00351864140433407</v>
       </c>
       <c r="C25">
         <v>0.1416318296495584</v>
@@ -672,7 +672,7 @@
         <v>43647</v>
       </c>
       <c r="B26">
-        <v>0.02742469791776579</v>
+        <v>-0.02984516423050377</v>
       </c>
       <c r="C26">
         <v>-0.08694350021667907</v>
@@ -683,7 +683,7 @@
         <v>43654</v>
       </c>
       <c r="B27">
-        <v>-0.04858048635542116</v>
+        <v>0.05333022830346063</v>
       </c>
       <c r="C27">
         <v>0.02411265929761353</v>
@@ -694,7 +694,7 @@
         <v>43661</v>
       </c>
       <c r="B28">
-        <v>-0.03764234272791154</v>
+        <v>0.03766215925336198</v>
       </c>
       <c r="C28">
         <v>-0.1233210971054536</v>
@@ -705,7 +705,7 @@
         <v>43668</v>
       </c>
       <c r="B29">
-        <v>-0.00126432073204149</v>
+        <v>0.0005726554918345822</v>
       </c>
       <c r="C29">
         <v>-0.04491355138561304</v>
@@ -716,7 +716,7 @@
         <v>43675</v>
       </c>
       <c r="B30">
-        <v>0.0161705890803504</v>
+        <v>-0.01638784162355709</v>
       </c>
       <c r="C30">
         <v>0.0303160061166281</v>
@@ -727,7 +727,7 @@
         <v>43682</v>
       </c>
       <c r="B31">
-        <v>-0.04369639828935785</v>
+        <v>0.04668749512542453</v>
       </c>
       <c r="C31">
         <v>0.0845188160859498</v>
@@ -738,7 +738,7 @@
         <v>43689</v>
       </c>
       <c r="B32">
-        <v>-0.01430993631080531</v>
+        <v>0.01386095411977912</v>
       </c>
       <c r="C32">
         <v>-0.1150181491900781</v>
@@ -749,7 +749,7 @@
         <v>43696</v>
       </c>
       <c r="B33">
-        <v>-0.04924774245029877</v>
+        <v>0.05171952680921701</v>
       </c>
       <c r="C33">
         <v>0.005455460809083323</v>
@@ -760,7 +760,7 @@
         <v>43703</v>
       </c>
       <c r="B34">
-        <v>-0.01425774989805528</v>
+        <v>0.01504534092383754</v>
       </c>
       <c r="C34">
         <v>-0.0821088605385768</v>
@@ -771,7 +771,7 @@
         <v>43710</v>
       </c>
       <c r="B35">
-        <v>-0.03372558437897712</v>
+        <v>0.03573868987052683</v>
       </c>
       <c r="C35">
         <v>0.05304456578464856</v>
@@ -782,7 +782,7 @@
         <v>43717</v>
       </c>
       <c r="B36">
-        <v>0.01073025308688996</v>
+        <v>-0.01085442733825242</v>
       </c>
       <c r="C36">
         <v>0.002334829675001426</v>
@@ -793,7 +793,7 @@
         <v>43724</v>
       </c>
       <c r="B37">
-        <v>0.003786959264976694</v>
+        <v>-0.004026468414205633</v>
       </c>
       <c r="C37">
         <v>0.02200526514045498</v>
@@ -804,7 +804,7 @@
         <v>43731</v>
       </c>
       <c r="B38">
-        <v>-0.01869999841029142</v>
+        <v>0.01928233932657296</v>
       </c>
       <c r="C38">
         <v>-0.2062461212035153</v>
@@ -815,7 +815,7 @@
         <v>43738</v>
       </c>
       <c r="B39">
-        <v>0.01459226322632847</v>
+        <v>-0.01589158384957397</v>
       </c>
       <c r="C39">
         <v>0.01881721632988809</v>
@@ -826,7 +826,7 @@
         <v>43745</v>
       </c>
       <c r="B40">
-        <v>0.01971370151622021</v>
+        <v>-0.02127678794281092</v>
       </c>
       <c r="C40">
         <v>0.02458626912072459</v>
@@ -837,7 +837,7 @@
         <v>43752</v>
       </c>
       <c r="B41">
-        <v>0.01572236239949748</v>
+        <v>-0.01786848524510739</v>
       </c>
       <c r="C41">
         <v>-0.0359358502148831</v>
@@ -848,7 +848,7 @@
         <v>43759</v>
       </c>
       <c r="B42">
-        <v>-0.001418259666731687</v>
+        <v>-0.0006547812706924399</v>
       </c>
       <c r="C42">
         <v>0.07564346383402087</v>
@@ -859,7 +859,7 @@
         <v>43766</v>
       </c>
       <c r="B43">
-        <v>0.02832460833664357</v>
+        <v>-0.0304131689483559</v>
       </c>
       <c r="C43">
         <v>0.06118078815205541</v>
@@ -870,7 +870,7 @@
         <v>43773</v>
       </c>
       <c r="B44">
-        <v>0.02048926453159385</v>
+        <v>-0.02035735413996073</v>
       </c>
       <c r="C44">
         <v>-0.02850760817228981</v>
@@ -881,7 +881,7 @@
         <v>43780</v>
       </c>
       <c r="B45">
-        <v>0.02123184693288263</v>
+        <v>-0.02240381776739557</v>
       </c>
       <c r="C45">
         <v>-0.03970217210102645</v>
@@ -892,7 +892,7 @@
         <v>43787</v>
       </c>
       <c r="B46">
-        <v>-0.0009351186496107102</v>
+        <v>0.001436821491952173</v>
       </c>
       <c r="C46">
         <v>-0.1397770039316991</v>
@@ -903,7 +903,7 @@
         <v>43794</v>
       </c>
       <c r="B47">
-        <v>-0.003394242016190049</v>
+        <v>0.002573187090006722</v>
       </c>
       <c r="C47">
         <v>0.04073830736757111</v>
@@ -914,7 +914,7 @@
         <v>43801</v>
       </c>
       <c r="B48">
-        <v>-0.0130191233220701</v>
+        <v>0.01292644736242522</v>
       </c>
       <c r="C48">
         <v>-0.03347621069151985</v>
@@ -925,7 +925,7 @@
         <v>43808</v>
       </c>
       <c r="B49">
-        <v>-0.008585118465491669</v>
+        <v>0.008294397753882316</v>
       </c>
       <c r="C49">
         <v>-0.02757278687740106</v>
@@ -936,7 +936,7 @@
         <v>43815</v>
       </c>
       <c r="B50">
-        <v>-0.01826431162222685</v>
+        <v>0.01867223470200629</v>
       </c>
       <c r="C50">
         <v>-0.03064463537185669</v>
@@ -947,7 +947,7 @@
         <v>43822</v>
       </c>
       <c r="B51">
-        <v>-0.006286701145571193</v>
+        <v>0.007531568509587061</v>
       </c>
       <c r="C51">
         <v>0.00304734232352466</v>
@@ -958,7 +958,7 @@
         <v>43829</v>
       </c>
       <c r="B52">
-        <v>0.002583464515903962</v>
+        <v>-0.003007545535201636</v>
       </c>
       <c r="C52">
         <v>0.01101686985775552</v>
@@ -969,7 +969,7 @@
         <v>43836</v>
       </c>
       <c r="B53">
-        <v>0.01957676932508734</v>
+        <v>-0.02021153964587835</v>
       </c>
       <c r="C53">
         <v>0.1030264015986448</v>
@@ -980,7 +980,7 @@
         <v>43843</v>
       </c>
       <c r="B54">
-        <v>-0.006779196823986615</v>
+        <v>0.006500433907347133</v>
       </c>
       <c r="C54">
         <v>0.1501965306676036</v>
@@ -991,7 +991,7 @@
         <v>43850</v>
       </c>
       <c r="B55">
-        <v>0.04734301083780692</v>
+        <v>-0.04832506213767183</v>
       </c>
       <c r="C55">
         <v>-0.05013746454794032</v>
@@ -1002,7 +1002,7 @@
         <v>43857</v>
       </c>
       <c r="B56">
-        <v>0.03020272109672195</v>
+        <v>-0.03013884079436998</v>
       </c>
       <c r="C56">
         <v>0.1018959314725079</v>
@@ -1013,7 +1013,7 @@
         <v>43864</v>
       </c>
       <c r="B57">
-        <v>0.02513389296534703</v>
+        <v>-0.0268906114100158</v>
       </c>
       <c r="C57">
         <v>0.07528770858065248</v>
@@ -1024,7 +1024,7 @@
         <v>43871</v>
       </c>
       <c r="B58">
-        <v>0.005244486272437997</v>
+        <v>-0.006420485662678441</v>
       </c>
       <c r="C58">
         <v>0.1061998930383681</v>
@@ -1035,7 +1035,7 @@
         <v>43878</v>
       </c>
       <c r="B59">
-        <v>-0.02221712796016609</v>
+        <v>0.02324506844522644</v>
       </c>
       <c r="C59">
         <v>-0.08907042418948818</v>
@@ -1046,7 +1046,7 @@
         <v>43885</v>
       </c>
       <c r="B60">
-        <v>-0.003976010690674167</v>
+        <v>0.005922955240582577</v>
       </c>
       <c r="C60">
         <v>-0.1203420693623434</v>
@@ -1057,7 +1057,7 @@
         <v>43892</v>
       </c>
       <c r="B61">
-        <v>0.03024434084676134</v>
+        <v>-0.03215423908066945</v>
       </c>
       <c r="C61">
         <v>0.05982040740626249</v>
@@ -1068,7 +1068,7 @@
         <v>43899</v>
       </c>
       <c r="B62">
-        <v>-0.008895754122312739</v>
+        <v>0.008585548656393958</v>
       </c>
       <c r="C62">
         <v>-0.4108664128735892</v>
@@ -1079,7 +1079,7 @@
         <v>43906</v>
       </c>
       <c r="B63">
-        <v>-0.02477462314456896</v>
+        <v>0.02598707076868617</v>
       </c>
       <c r="C63">
         <v>0.1070681095282859</v>
@@ -1090,7 +1090,7 @@
         <v>43913</v>
       </c>
       <c r="B64">
-        <v>-0.01971578108165447</v>
+        <v>0.02199268595317648</v>
       </c>
       <c r="C64">
         <v>0.07440991833316501</v>
@@ -1101,7 +1101,7 @@
         <v>43920</v>
       </c>
       <c r="B65">
-        <v>-0.01487419269687252</v>
+        <v>0.01584783219455042</v>
       </c>
       <c r="C65">
         <v>0.007640639218367662</v>
@@ -1112,7 +1112,7 @@
         <v>43927</v>
       </c>
       <c r="B66">
-        <v>0.0232162648850991</v>
+        <v>-0.02271092475102517</v>
       </c>
       <c r="C66">
         <v>0.04053290890008454</v>
@@ -1123,7 +1123,7 @@
         <v>43934</v>
       </c>
       <c r="B67">
-        <v>-0.003077038282040033</v>
+        <v>0.002551147039507739</v>
       </c>
       <c r="C67">
         <v>0.03525446308566904</v>
@@ -1134,7 +1134,7 @@
         <v>43941</v>
       </c>
       <c r="B68">
-        <v>0.01004507450504757</v>
+        <v>-0.01107840337317299</v>
       </c>
       <c r="C68">
         <v>0.06791186825180229</v>
@@ -1145,7 +1145,7 @@
         <v>43948</v>
       </c>
       <c r="B69">
-        <v>0.01322277349834146</v>
+        <v>-0.01290548621758235</v>
       </c>
       <c r="C69">
         <v>0.1424568443996874</v>
@@ -1156,7 +1156,7 @@
         <v>43955</v>
       </c>
       <c r="B70">
-        <v>0.01793529175349673</v>
+        <v>-0.01825427750627575</v>
       </c>
       <c r="C70">
         <v>0.1009451843435594</v>
@@ -1167,7 +1167,7 @@
         <v>43962</v>
       </c>
       <c r="B71">
-        <v>0.01412653687717818</v>
+        <v>-0.01488633486457514</v>
       </c>
       <c r="C71">
         <v>-0.05814400283636023</v>
@@ -1178,7 +1178,7 @@
         <v>43969</v>
       </c>
       <c r="B72">
-        <v>0.03468743723444347</v>
+        <v>-0.03455609957547786</v>
       </c>
       <c r="C72">
         <v>-0.007331548783467756</v>
@@ -1189,7 +1189,7 @@
         <v>43976</v>
       </c>
       <c r="B73">
-        <v>0.01343409700460918</v>
+        <v>-0.01455298727556594</v>
       </c>
       <c r="C73">
         <v>0.02281874413020879</v>
@@ -1200,7 +1200,7 @@
         <v>43983</v>
       </c>
       <c r="B74">
-        <v>0.01730267203894489</v>
+        <v>-0.01543647112464471</v>
       </c>
       <c r="C74">
         <v>0.04342016376342905</v>
@@ -1211,7 +1211,7 @@
         <v>43990</v>
       </c>
       <c r="B75">
-        <v>-0.001357688850033798</v>
+        <v>0.0008359534002721869</v>
       </c>
       <c r="C75">
         <v>-0.02335202835886907</v>
@@ -1222,7 +1222,7 @@
         <v>43997</v>
       </c>
       <c r="B76">
-        <v>0.01659740771627314</v>
+        <v>-0.01661283711247034</v>
       </c>
       <c r="C76">
         <v>-0.02172218742831389</v>
@@ -1233,7 +1233,7 @@
         <v>44004</v>
       </c>
       <c r="B77">
-        <v>0.01850254673976236</v>
+        <v>-0.01679496691219008</v>
       </c>
       <c r="C77">
         <v>-0.008899726002520203</v>
@@ -1244,7 +1244,7 @@
         <v>44011</v>
       </c>
       <c r="B78">
-        <v>0.02838421961657611</v>
+        <v>-0.02876975910699429</v>
       </c>
       <c r="C78">
         <v>-0.01313682553288886</v>
@@ -1255,7 +1255,7 @@
         <v>44018</v>
       </c>
       <c r="B79">
-        <v>0.03028404546341252</v>
+        <v>-0.0330687009620335</v>
       </c>
       <c r="C79">
         <v>0.05618627802779153</v>
@@ -1266,7 +1266,7 @@
         <v>44025</v>
       </c>
       <c r="B80">
-        <v>-0.0164631732899718</v>
+        <v>0.01967708810098178</v>
       </c>
       <c r="C80">
         <v>-0.1994913477057192</v>
@@ -1277,7 +1277,7 @@
         <v>44060</v>
       </c>
       <c r="B81">
-        <v>-0.01705619729885622</v>
+        <v>0.01631326724799131</v>
       </c>
       <c r="C81">
         <v>0.6193972956372171</v>
@@ -1288,7 +1288,7 @@
         <v>44067</v>
       </c>
       <c r="B82">
-        <v>0.008327648392502782</v>
+        <v>-0.009218184016093971</v>
       </c>
       <c r="C82">
         <v>-0.01165265909106072</v>
@@ -1299,7 +1299,7 @@
         <v>44074</v>
       </c>
       <c r="B83">
-        <v>0.0264650245677603</v>
+        <v>-0.02582352604184701</v>
       </c>
       <c r="C83">
         <v>-0.06818556960106825</v>
@@ -1310,7 +1310,7 @@
         <v>44081</v>
       </c>
       <c r="B84">
-        <v>0.003646658132562711</v>
+        <v>-0.003071994975270382</v>
       </c>
       <c r="C84">
         <v>-0.06207920469610051</v>
@@ -1321,7 +1321,7 @@
         <v>44088</v>
       </c>
       <c r="B85">
-        <v>-0.01121198261422973</v>
+        <v>0.01285617767181563</v>
       </c>
       <c r="C85">
         <v>0.03595584777828664</v>
@@ -1332,7 +1332,7 @@
         <v>44095</v>
       </c>
       <c r="B86">
-        <v>-0.03886785407436493</v>
+        <v>0.04063330435333114</v>
       </c>
       <c r="C86">
         <v>-0.02950432463234465</v>
@@ -1343,7 +1343,7 @@
         <v>44102</v>
       </c>
       <c r="B87">
-        <v>-0.02378225425563298</v>
+        <v>0.02329209843662376</v>
       </c>
       <c r="C87">
         <v>-0.01875704664558386</v>
@@ -1354,7 +1354,7 @@
         <v>44109</v>
       </c>
       <c r="B88">
-        <v>0.001647880112055095</v>
+        <v>-0.0007883254148664306</v>
       </c>
       <c r="C88">
         <v>0.09366856452780792</v>
@@ -1365,7 +1365,7 @@
         <v>44116</v>
       </c>
       <c r="B89">
-        <v>0.0278319439334079</v>
+        <v>-0.0261758320921243</v>
       </c>
       <c r="C89">
         <v>-0.02336230751885793</v>
@@ -1376,7 +1376,7 @@
         <v>44123</v>
       </c>
       <c r="B90">
-        <v>-0.007249048944764113</v>
+        <v>0.008028697827938761</v>
       </c>
       <c r="C90">
         <v>0.1256346684534662</v>
@@ -1387,7 +1387,7 @@
         <v>44130</v>
       </c>
       <c r="B91">
-        <v>-0.01716883255008622</v>
+        <v>0.01819825420828001</v>
       </c>
       <c r="C91">
         <v>0.01684480975665048</v>
@@ -1398,7 +1398,7 @@
         <v>44137</v>
       </c>
       <c r="B92">
-        <v>-0.01735277231943547</v>
+        <v>0.0181717023661762</v>
       </c>
       <c r="C92">
         <v>0.1287907383313187</v>
@@ -1409,7 +1409,7 @@
         <v>44144</v>
       </c>
       <c r="B93">
-        <v>0.01910156767914644</v>
+        <v>-0.01986787146337265</v>
       </c>
       <c r="C93">
         <v>0.05591590920498812</v>
@@ -1420,7 +1420,7 @@
         <v>44151</v>
       </c>
       <c r="B94">
-        <v>-0.00113263474126885</v>
+        <v>0.001549913722747724</v>
       </c>
       <c r="C94">
         <v>0.1212231699759518</v>
@@ -1431,7 +1431,7 @@
         <v>44158</v>
       </c>
       <c r="B95">
-        <v>0.04885803945267247</v>
+        <v>-0.05935092387800093</v>
       </c>
       <c r="C95">
         <v>-0.05412493691156139</v>
@@ -1442,7 +1442,7 @@
         <v>44165</v>
       </c>
       <c r="B96">
-        <v>-0.04424429251691054</v>
+        <v>0.04604429656955236</v>
       </c>
       <c r="C96">
         <v>0.09243057377544539</v>
@@ -1453,7 +1453,7 @@
         <v>44172</v>
       </c>
       <c r="B97">
-        <v>-0.02488295332552563</v>
+        <v>0.02361670922049629</v>
       </c>
       <c r="C97">
         <v>-0.0340723765159221</v>
@@ -1464,7 +1464,7 @@
         <v>44179</v>
       </c>
       <c r="B98">
-        <v>-0.009074228966704637</v>
+        <v>0.00805080660549526</v>
       </c>
       <c r="C98">
         <v>0.2437533913226435</v>
@@ -1475,7 +1475,7 @@
         <v>44186</v>
       </c>
       <c r="B99">
-        <v>0.005754737733010974</v>
+        <v>-0.005418577466874106</v>
       </c>
       <c r="C99">
         <v>0.003733470520788318</v>
@@ -1486,7 +1486,7 @@
         <v>44193</v>
       </c>
       <c r="B100">
-        <v>0.02387256179687876</v>
+        <v>-0.02216137334698811</v>
       </c>
       <c r="C100">
         <v>0.2190965973232359</v>
@@ -1497,7 +1497,7 @@
         <v>44200</v>
       </c>
       <c r="B101">
-        <v>0.04975405043469028</v>
+        <v>-0.05365067187815956</v>
       </c>
       <c r="C101">
         <v>0.4180412828824143</v>
@@ -1508,7 +1508,7 @@
         <v>44207</v>
       </c>
       <c r="B102">
-        <v>0.01978517579187428</v>
+        <v>-0.01709508294239511</v>
       </c>
       <c r="C102">
         <v>-0.09141267086976002</v>
@@ -1519,7 +1519,7 @@
         <v>44214</v>
       </c>
       <c r="B103">
-        <v>-0.04224122622617774</v>
+        <v>0.04091640971811325</v>
       </c>
       <c r="C103">
         <v>-0.1307010034150738</v>
@@ -1530,7 +1530,7 @@
         <v>44221</v>
       </c>
       <c r="B104">
-        <v>-0.01677981349773797</v>
+        <v>0.0177424037186517</v>
       </c>
       <c r="C104">
         <v>0.1629351379175341</v>
@@ -1541,7 +1541,7 @@
         <v>44228</v>
       </c>
       <c r="B105">
-        <v>0.04396371325773717</v>
+        <v>-0.04125583625485282</v>
       </c>
       <c r="C105">
         <v>0.1235408158696178</v>
@@ -1552,7 +1552,7 @@
         <v>44235</v>
       </c>
       <c r="B106">
-        <v>-0.0456735898156921</v>
+        <v>0.05582096863457662</v>
       </c>
       <c r="C106">
         <v>0.2476191778386989</v>
@@ -1563,7 +1563,7 @@
         <v>44242</v>
       </c>
       <c r="B107">
-        <v>0.004373417414257006</v>
+        <v>-0.002890709169745063</v>
       </c>
       <c r="C107">
         <v>0.1615926239761127</v>
@@ -1574,7 +1574,7 @@
         <v>44249</v>
       </c>
       <c r="B108">
-        <v>-0.004532058875983578</v>
+        <v>0.003265117773866002</v>
       </c>
       <c r="C108">
         <v>-0.1971994689527899</v>
@@ -1585,7 +1585,7 @@
         <v>44256</v>
       </c>
       <c r="B109">
-        <v>-0.02443584835118447</v>
+        <v>0.02550953231942008</v>
       </c>
       <c r="C109">
         <v>0.07010765092403681</v>
@@ -1596,7 +1596,7 @@
         <v>44263</v>
       </c>
       <c r="B110">
-        <v>-0.03758464836469259</v>
+        <v>0.03327347668237226</v>
       </c>
       <c r="C110">
         <v>0.1576677531901665</v>
@@ -1607,7 +1607,7 @@
         <v>44270</v>
       </c>
       <c r="B111">
-        <v>0.02337784847047707</v>
+        <v>-0.02794428159061679</v>
       </c>
       <c r="C111">
         <v>0.03562220711072905</v>
@@ -1618,7 +1618,7 @@
         <v>44277</v>
       </c>
       <c r="B112">
-        <v>-0.02890465181480137</v>
+        <v>0.02700966693032336</v>
       </c>
       <c r="C112">
         <v>-0.06169313922942754</v>
@@ -1629,7 +1629,7 @@
         <v>44284</v>
       </c>
       <c r="B113">
-        <v>-0.008803670947377143</v>
+        <v>0.008352995054250833</v>
       </c>
       <c r="C113">
         <v>0.09731784189278692</v>
@@ -1640,7 +1640,7 @@
         <v>44291</v>
       </c>
       <c r="B114">
-        <v>0.03967459930353054</v>
+        <v>-0.05152826591550964</v>
       </c>
       <c r="C114">
         <v>0.021497823224079</v>
@@ -1651,7 +1651,7 @@
         <v>44298</v>
       </c>
       <c r="B115">
-        <v>0.03676629632825201</v>
+        <v>-0.03815626523382306</v>
       </c>
       <c r="C115">
         <v>0.1302060971860892</v>
@@ -1662,7 +1662,7 @@
         <v>44305</v>
       </c>
       <c r="B116">
-        <v>-0.05985464499163402</v>
+        <v>0.06161142202527172</v>
       </c>
       <c r="C116">
         <v>-0.165388731165922</v>
@@ -1673,7 +1673,7 @@
         <v>44312</v>
       </c>
       <c r="B117">
-        <v>0.06635814509894902</v>
+        <v>-0.0749969830845776</v>
       </c>
       <c r="C117">
         <v>0.1495957846185161</v>
@@ -1684,7 +1684,7 @@
         <v>44319</v>
       </c>
       <c r="B118">
-        <v>0.02077816687551734</v>
+        <v>-0.02284087827163759</v>
       </c>
       <c r="C118">
         <v>0.1014711800097456</v>
@@ -1695,7 +1695,7 @@
         <v>44326</v>
       </c>
       <c r="B119">
-        <v>-0.03701693562587703</v>
+        <v>0.0431905790866644</v>
       </c>
       <c r="C119">
         <v>-0.04630978734800328</v>
@@ -1706,7 +1706,7 @@
         <v>44333</v>
       </c>
       <c r="B120">
-        <v>-0.01799173048140688</v>
+        <v>0.01755731169869828</v>
       </c>
       <c r="C120">
         <v>-0.3358311453530496</v>
@@ -1717,7 +1717,7 @@
         <v>44340</v>
       </c>
       <c r="B121">
-        <v>0.03453809312648577</v>
+        <v>-0.047785836609633</v>
       </c>
       <c r="C121">
         <v>-0.03321274788374795</v>
@@ -1728,7 +1728,7 @@
         <v>44347</v>
       </c>
       <c r="B122">
-        <v>0.02091555096909198</v>
+        <v>-0.02456048815585123</v>
       </c>
       <c r="C122">
         <v>0.1002092256148983</v>
@@ -1739,7 +1739,7 @@
         <v>44354</v>
       </c>
       <c r="B123">
-        <v>-0.01628796915332272</v>
+        <v>0.01892663947697498</v>
       </c>
       <c r="C123">
         <v>-0.0714375363158094</v>
@@ -1750,7 +1750,7 @@
         <v>44361</v>
       </c>
       <c r="B124">
-        <v>-0.005960074397960688</v>
+        <v>0.006959543717530978</v>
       </c>
       <c r="C124">
         <v>-0.03990933864895385</v>
@@ -1761,7 +1761,7 @@
         <v>44368</v>
       </c>
       <c r="B125">
-        <v>-0.04854066209044366</v>
+        <v>0.06005203392674206</v>
       </c>
       <c r="C125">
         <v>-0.1271062147004111</v>
@@ -1772,7 +1772,7 @@
         <v>44375</v>
       </c>
       <c r="B126">
-        <v>0.001927897880615401</v>
+        <v>-0.006198177424054298</v>
       </c>
       <c r="C126">
         <v>0.05769381061983725</v>
@@ -1783,7 +1783,7 @@
         <v>44382</v>
       </c>
       <c r="B127">
-        <v>0.007989136172195009</v>
+        <v>-0.009640466358366963</v>
       </c>
       <c r="C127">
         <v>0.02552669083919401</v>
@@ -1794,7 +1794,7 @@
         <v>44389</v>
       </c>
       <c r="B128">
-        <v>0.01221973660091205</v>
+        <v>-0.01240140533949053</v>
       </c>
       <c r="C128">
         <v>-0.0892011285562796</v>
@@ -1805,7 +1805,7 @@
         <v>44396</v>
       </c>
       <c r="B129">
-        <v>-0.01896394697361412</v>
+        <v>0.0220609375503087</v>
       </c>
       <c r="C129">
         <v>0.04031742088293844</v>
@@ -1816,7 +1816,7 @@
         <v>44403</v>
       </c>
       <c r="B130">
-        <v>-0.02819180615958468</v>
+        <v>0.03052042604038481</v>
       </c>
       <c r="C130">
         <v>0.2030585737117694</v>
@@ -1827,7 +1827,7 @@
         <v>44410</v>
       </c>
       <c r="B131">
-        <v>0.01534679000578117</v>
+        <v>-0.01885130364886048</v>
       </c>
       <c r="C131">
         <v>0.09018347805347049</v>
@@ -1838,7 +1838,7 @@
         <v>44417</v>
       </c>
       <c r="B132">
-        <v>0.005940788759008235</v>
+        <v>-0.006054441523690628</v>
       </c>
       <c r="C132">
         <v>0.1363982129085071</v>
@@ -1849,7 +1849,7 @@
         <v>44424</v>
       </c>
       <c r="B133">
-        <v>0.01646402536648346</v>
+        <v>-0.01659415149012596</v>
       </c>
       <c r="C133">
         <v>0.03959193725394061</v>
@@ -1860,7 +1860,7 @@
         <v>44431</v>
       </c>
       <c r="B134">
-        <v>0.04115589992731</v>
+        <v>-0.04221824688946996</v>
       </c>
       <c r="C134">
         <v>0.001495890098275332</v>
@@ -1871,7 +1871,7 @@
         <v>44438</v>
       </c>
       <c r="B135">
-        <v>-0.04299022150501267</v>
+        <v>0.04296066560562337</v>
       </c>
       <c r="C135">
         <v>0.06036349157714116</v>
@@ -1882,7 +1882,7 @@
         <v>44445</v>
       </c>
       <c r="B136">
-        <v>-0.02424105432427541</v>
+        <v>0.02411004811718245</v>
       </c>
       <c r="C136">
         <v>-0.1299810653654685</v>
@@ -1893,7 +1893,7 @@
         <v>44452</v>
       </c>
       <c r="B137">
-        <v>-0.04268100802195508</v>
+        <v>0.04356392232472089</v>
       </c>
       <c r="C137">
         <v>0.05020368682553067</v>
@@ -1904,7 +1904,7 @@
         <v>44459</v>
       </c>
       <c r="B138">
-        <v>-0.04286334109856144</v>
+        <v>0.04764808676165634</v>
       </c>
       <c r="C138">
         <v>-0.1024891753749331</v>
@@ -1915,7 +1915,7 @@
         <v>44466</v>
       </c>
       <c r="B139">
-        <v>-0.001712088577007017</v>
+        <v>0.0009318629696936495</v>
       </c>
       <c r="C139">
         <v>0.1098048712389494</v>
@@ -1926,7 +1926,7 @@
         <v>44473</v>
       </c>
       <c r="B140">
-        <v>-0.03900362114427724</v>
+        <v>0.04133254118813094</v>
       </c>
       <c r="C140">
         <v>0.101593056843398</v>
@@ -1937,7 +1937,7 @@
         <v>44480</v>
       </c>
       <c r="B141">
-        <v>-0.04630264130704077</v>
+        <v>0.0511624210681825</v>
       </c>
       <c r="C141">
         <v>0.102265266886499</v>
@@ -1948,7 +1948,7 @@
         <v>44487</v>
       </c>
       <c r="B142">
-        <v>-0.008154983420271869</v>
+        <v>0.008130842205732012</v>
       </c>
       <c r="C142">
         <v>0.0007183954217535593</v>
@@ -1959,7 +1959,7 @@
         <v>44494</v>
       </c>
       <c r="B143">
-        <v>0.04359769106067096</v>
+        <v>-0.04297519269792836</v>
       </c>
       <c r="C143">
         <v>0.0536990071964587</v>
@@ -1970,7 +1970,7 @@
         <v>44501</v>
       </c>
       <c r="B144">
-        <v>-0.0003382268272864781</v>
+        <v>-0.00157099096615079</v>
       </c>
       <c r="C144">
         <v>-0.002275179919582371</v>
@@ -1981,7 +1981,7 @@
         <v>44508</v>
       </c>
       <c r="B145">
-        <v>-0.008551441662335528</v>
+        <v>0.01009013002391757</v>
       </c>
       <c r="C145">
         <v>0.0417142028055868</v>
@@ -1992,7 +1992,7 @@
         <v>44515</v>
       </c>
       <c r="B146">
-        <v>0.005200587228101263</v>
+        <v>-0.007934830709029891</v>
       </c>
       <c r="C146">
         <v>-0.08742779996916539</v>
@@ -2003,7 +2003,7 @@
         <v>44522</v>
       </c>
       <c r="B147">
-        <v>0.03327109318981625</v>
+        <v>-0.03481172762679451</v>
       </c>
       <c r="C147">
         <v>-0.05407229532616808</v>
@@ -2014,7 +2014,7 @@
         <v>44529</v>
       </c>
       <c r="B148">
-        <v>0.02441814141953766</v>
+        <v>-0.02528180650815407</v>
       </c>
       <c r="C148">
         <v>0.001126935162745868</v>
@@ -2025,7 +2025,7 @@
         <v>44536</v>
       </c>
       <c r="B149">
-        <v>0.02501268831736898</v>
+        <v>-0.02647331907704069</v>
       </c>
       <c r="C149">
         <v>-0.09461590812374676</v>
@@ -2036,7 +2036,7 @@
         <v>44543</v>
       </c>
       <c r="B150">
-        <v>-0.02079145291790006</v>
+        <v>0.02443862923944619</v>
       </c>
       <c r="C150">
         <v>-0.04015650211288502</v>
@@ -2047,7 +2047,7 @@
         <v>44550</v>
       </c>
       <c r="B151">
-        <v>0.008246433155629181</v>
+        <v>-0.006965186798845132</v>
       </c>
       <c r="C151">
         <v>0.09294163012421053</v>
@@ -2058,7 +2058,7 @@
         <v>44557</v>
       </c>
       <c r="B152">
-        <v>0.009415803026899072</v>
+        <v>-0.009771310511421454</v>
       </c>
       <c r="C152">
         <v>-0.1018151188457243</v>
@@ -2069,7 +2069,7 @@
         <v>44564</v>
       </c>
       <c r="B153">
-        <v>0.01228866717667973</v>
+        <v>-0.0137374986756814</v>
       </c>
       <c r="C153">
         <v>-0.108959649497398</v>
@@ -2080,7 +2080,7 @@
         <v>44571</v>
       </c>
       <c r="B154">
-        <v>-0.003992449919507504</v>
+        <v>0.007320828305214681</v>
       </c>
       <c r="C154">
         <v>-0.00140005302323476</v>
@@ -2091,7 +2091,7 @@
         <v>44578</v>
       </c>
       <c r="B155">
-        <v>0.04359857467447148</v>
+        <v>-0.04089447540136472</v>
       </c>
       <c r="C155">
         <v>-0.1751801776898438</v>
@@ -2102,7 +2102,7 @@
         <v>44585</v>
       </c>
       <c r="B156">
-        <v>-0.03244189823222821</v>
+        <v>0.03710494321691354</v>
       </c>
       <c r="C156">
         <v>0.006031746280749983</v>
@@ -2113,7 +2113,7 @@
         <v>44592</v>
       </c>
       <c r="B157">
-        <v>0.009371563464217832</v>
+        <v>-0.01083049714136316</v>
       </c>
       <c r="C157">
         <v>0.09687525892673055</v>
@@ -2124,7 +2124,7 @@
         <v>44599</v>
       </c>
       <c r="B158">
-        <v>0.01032754508882483</v>
+        <v>-0.01530400861725855</v>
       </c>
       <c r="C158">
         <v>0.03077553452691406</v>
@@ -2135,7 +2135,7 @@
         <v>44606</v>
       </c>
       <c r="B159">
-        <v>0.01260239754752987</v>
+        <v>-0.01128035056335763</v>
       </c>
       <c r="C159">
         <v>-0.05557106062310058</v>
@@ -2146,7 +2146,7 @@
         <v>44613</v>
       </c>
       <c r="B160">
-        <v>-0.04162067460864367</v>
+        <v>0.04572144737670424</v>
       </c>
       <c r="C160">
         <v>-0.03192226223981875</v>
@@ -2157,7 +2157,7 @@
         <v>44620</v>
       </c>
       <c r="B161">
-        <v>-0.008678277016812973</v>
+        <v>0.01424453682044339</v>
       </c>
       <c r="C161">
         <v>-0.003265681586583136</v>
@@ -2168,7 +2168,7 @@
         <v>44627</v>
       </c>
       <c r="B162">
-        <v>-0.008402505072818051</v>
+        <v>0.007469724349785885</v>
       </c>
       <c r="C162">
         <v>-0.01730288090132814</v>
@@ -2179,7 +2179,7 @@
         <v>44634</v>
       </c>
       <c r="B163">
-        <v>-0.01985535029731046</v>
+        <v>0.02226221838658203</v>
       </c>
       <c r="C163">
         <v>0.09058705480803186</v>
@@ -2190,7 +2190,7 @@
         <v>44641</v>
       </c>
       <c r="B164">
-        <v>0.0314482740919653</v>
+        <v>-0.03494740381354403</v>
       </c>
       <c r="C164">
         <v>0.0709528669452415</v>
@@ -2201,7 +2201,7 @@
         <v>44648</v>
       </c>
       <c r="B165">
-        <v>-0.01650164383014579</v>
+        <v>0.01747256347563915</v>
       </c>
       <c r="C165">
         <v>0.06623339136655537</v>
@@ -2212,7 +2212,7 @@
         <v>44655</v>
       </c>
       <c r="B166">
-        <v>0.006312095389697351</v>
+        <v>-0.003461059719824005</v>
       </c>
       <c r="C166">
         <v>-0.07519053074293214</v>
@@ -2223,7 +2223,7 @@
         <v>44662</v>
       </c>
       <c r="B167">
-        <v>-0.0106217552715638</v>
+        <v>0.01316412935425719</v>
       </c>
       <c r="C167">
         <v>-0.0584598116830517</v>
@@ -2234,7 +2234,7 @@
         <v>44669</v>
       </c>
       <c r="B168">
-        <v>0.005626244344038573</v>
+        <v>-0.005101440990968274</v>
       </c>
       <c r="C168">
         <v>-0.02028538123079981</v>
@@ -2245,7 +2245,7 @@
         <v>44676</v>
       </c>
       <c r="B169">
-        <v>-0.01634211758047555</v>
+        <v>0.01566122727760726</v>
       </c>
       <c r="C169">
         <v>-0.03849384879777396</v>
@@ -2256,7 +2256,7 @@
         <v>44683</v>
       </c>
       <c r="B170">
-        <v>0.004664305611564062</v>
+        <v>-0.004049895825410797</v>
       </c>
       <c r="C170">
         <v>-0.06004789900952934</v>
@@ -2267,7 +2267,7 @@
         <v>44690</v>
       </c>
       <c r="B171">
-        <v>-0.04582093913371203</v>
+        <v>0.05093581241444296</v>
       </c>
       <c r="C171">
         <v>-0.1967061918300405</v>
@@ -2278,7 +2278,7 @@
         <v>44697</v>
       </c>
       <c r="B172">
-        <v>-0.03139987087523464</v>
+        <v>0.03302783667744582</v>
       </c>
       <c r="C172">
         <v>-0.03290848915365319</v>
@@ -2289,7 +2289,7 @@
         <v>44704</v>
       </c>
       <c r="B173">
-        <v>-0.0238182326932413</v>
+        <v>0.02272564948989977</v>
       </c>
       <c r="C173">
         <v>-0.03774631078741275</v>
@@ -2300,7 +2300,7 @@
         <v>44711</v>
       </c>
       <c r="B174">
-        <v>0.03962187427503212</v>
+        <v>-0.04089555884774301</v>
       </c>
       <c r="C174">
         <v>0.02522239115934255</v>
@@ -2311,7 +2311,7 @@
         <v>44718</v>
       </c>
       <c r="B175">
-        <v>0.02156942256184916</v>
+        <v>-0.0190281784309203</v>
       </c>
       <c r="C175">
         <v>-0.02130380176258639</v>
@@ -2322,7 +2322,7 @@
         <v>44725</v>
       </c>
       <c r="B176">
-        <v>0.08326604752841675</v>
+        <v>-0.08875186846897701</v>
       </c>
       <c r="C176">
         <v>-0.3024387176054888</v>
@@ -2333,7 +2333,7 @@
         <v>44732</v>
       </c>
       <c r="B177">
-        <v>0.02657553069757079</v>
+        <v>-0.03091417393777012</v>
       </c>
       <c r="C177">
         <v>0.05506102470446361</v>
@@ -2344,7 +2344,7 @@
         <v>44739</v>
       </c>
       <c r="B178">
-        <v>0.005868245135487948</v>
+        <v>-0.008775398943904243</v>
       </c>
       <c r="C178">
         <v>-0.08934224510715116</v>
@@ -2355,7 +2355,7 @@
         <v>44746</v>
       </c>
       <c r="B179">
-        <v>-0.00158814280829416</v>
+        <v>0.00342917565387322</v>
       </c>
       <c r="C179">
         <v>0.1218458756942842</v>
@@ -2366,7 +2366,7 @@
         <v>44753</v>
       </c>
       <c r="B180">
-        <v>-0.02021880718210902</v>
+        <v>0.02082790701350891</v>
       </c>
       <c r="C180">
         <v>-0.02875379617775276</v>
@@ -2377,7 +2377,7 @@
         <v>44760</v>
       </c>
       <c r="B181">
-        <v>0.02417552748606962</v>
+        <v>-0.02252722452146315</v>
       </c>
       <c r="C181">
         <v>0.111823093520679</v>
@@ -2388,7 +2388,7 @@
         <v>44767</v>
       </c>
       <c r="B182">
-        <v>-0.02705568216101578</v>
+        <v>0.02792169425188622</v>
       </c>
       <c r="C182">
         <v>0.08126128369544916</v>
@@ -2399,7 +2399,7 @@
         <v>44774</v>
       </c>
       <c r="B183">
-        <v>0.01276567016585997</v>
+        <v>-0.01286000694471126</v>
       </c>
       <c r="C183">
         <v>-0.03272440640087448</v>
@@ -2410,7 +2410,7 @@
         <v>44781</v>
       </c>
       <c r="B184">
-        <v>0.002456277616426743</v>
+        <v>-0.002186061997124637</v>
       </c>
       <c r="C184">
         <v>0.07725603296258621</v>
@@ -2421,7 +2421,7 @@
         <v>44788</v>
       </c>
       <c r="B185">
-        <v>-0.008044663040369901</v>
+        <v>0.009421453792767969</v>
       </c>
       <c r="C185">
         <v>-0.1210179695375699</v>
@@ -2432,7 +2432,7 @@
         <v>44795</v>
       </c>
       <c r="B186">
-        <v>-0.001565921577274684</v>
+        <v>0.0003196507488280567</v>
       </c>
       <c r="C186">
         <v>-0.0395201321955736</v>
@@ -2443,7 +2443,7 @@
         <v>44802</v>
       </c>
       <c r="B187">
-        <v>0.0102430684127566</v>
+        <v>-0.01207016116972979</v>
       </c>
       <c r="C187">
         <v>-0.02465923392933977</v>
@@ -2454,7 +2454,7 @@
         <v>44809</v>
       </c>
       <c r="B188">
-        <v>0.002533560152265811</v>
+        <v>-0.005241512065914014</v>
       </c>
       <c r="C188">
         <v>0.07916970839537774</v>
@@ -2465,7 +2465,7 @@
         <v>44816</v>
       </c>
       <c r="B189">
-        <v>-0.001085532619760765</v>
+        <v>0.004449284924538467</v>
       </c>
       <c r="C189">
         <v>-0.099893030389689</v>
@@ -2476,7 +2476,7 @@
         <v>44823</v>
       </c>
       <c r="B190">
-        <v>0.0173100982501732</v>
+        <v>-0.01835146597112781</v>
       </c>
       <c r="C190">
         <v>-0.05401051335312224</v>
@@ -2487,7 +2487,7 @@
         <v>44830</v>
       </c>
       <c r="B191">
-        <v>-0.01686862710059515</v>
+        <v>0.01844855299750324</v>
       </c>
       <c r="C191">
         <v>0.02042732404477521</v>
@@ -2498,7 +2498,7 @@
         <v>44837</v>
       </c>
       <c r="B192">
-        <v>-0.002609808331545046</v>
+        <v>0.003190777687900437</v>
       </c>
       <c r="C192">
         <v>0.004516397487293711</v>
@@ -2509,7 +2509,7 @@
         <v>44844</v>
       </c>
       <c r="B193">
-        <v>-0.02499993386179244</v>
+        <v>0.02778084195585826</v>
       </c>
       <c r="C193">
         <v>-0.02652771990270186</v>
@@ -2520,7 +2520,7 @@
         <v>44851</v>
       </c>
       <c r="B194">
-        <v>0.002984626796861118</v>
+        <v>-0.003592878206536325</v>
       </c>
       <c r="C194">
         <v>0.003634006651719757</v>
@@ -2531,7 +2531,7 @@
         <v>44858</v>
       </c>
       <c r="B195">
-        <v>-0.005767961224344322</v>
+        <v>0.005761172611321266</v>
       </c>
       <c r="C195">
         <v>0.1161965483656575</v>
@@ -2542,7 +2542,7 @@
         <v>44865</v>
       </c>
       <c r="B196">
-        <v>0.02425255134307601</v>
+        <v>-0.02603612351760155</v>
       </c>
       <c r="C196">
         <v>0.03831800269415564</v>
@@ -2553,7 +2553,7 @@
         <v>44872</v>
       </c>
       <c r="B197">
-        <v>0.01715517461482737</v>
+        <v>-0.02063808028475258</v>
       </c>
       <c r="C197">
         <v>-0.214427718813715</v>
@@ -2564,7 +2564,7 @@
         <v>44879</v>
       </c>
       <c r="B198">
-        <v>-0.009436825202379462</v>
+        <v>0.007443162390249095</v>
       </c>
       <c r="C198">
         <v>-0.01996328446194051</v>
@@ -2575,7 +2575,7 @@
         <v>44886</v>
       </c>
       <c r="B199">
-        <v>0.006955308168172383</v>
+        <v>-0.009828157111417737</v>
       </c>
       <c r="C199">
         <v>-0.001336396875375678</v>
@@ -2586,7 +2586,7 @@
         <v>44893</v>
       </c>
       <c r="B200">
-        <v>-0.002786680657695315</v>
+        <v>0.002175385162501506</v>
       </c>
       <c r="C200">
         <v>0.04249349850653106</v>
@@ -2597,7 +2597,7 @@
         <v>44900</v>
       </c>
       <c r="B201">
-        <v>-0.002307684369445584</v>
+        <v>0.0009541510568403886</v>
       </c>
       <c r="C201">
         <v>-0.003739588029423646</v>
@@ -2608,7 +2608,7 @@
         <v>44907</v>
       </c>
       <c r="B202">
-        <v>-0.003641957506015665</v>
+        <v>0.004501552298290015</v>
       </c>
       <c r="C202">
         <v>-0.05255234153821053</v>
@@ -2619,7 +2619,7 @@
         <v>44914</v>
       </c>
       <c r="B203">
-        <v>-0.02562952101438594</v>
+        <v>0.02929136734538331</v>
       </c>
       <c r="C203">
         <v>0.01895202258272577</v>
@@ -2630,7 +2630,7 @@
         <v>44921</v>
       </c>
       <c r="B204">
-        <v>0.01460560515093841</v>
+        <v>-0.01562312335598832</v>
       </c>
       <c r="C204">
         <v>-0.0165449605359177</v>
@@ -2641,7 +2641,7 @@
         <v>44928</v>
       </c>
       <c r="B205">
-        <v>0.01139344046978228</v>
+        <v>-0.01289812833962502</v>
       </c>
       <c r="C205">
         <v>0.03347392515956926</v>
@@ -2652,7 +2652,7 @@
         <v>44935</v>
       </c>
       <c r="B206">
-        <v>0.01934288977623174</v>
+        <v>-0.02256150432223722</v>
       </c>
       <c r="C206">
         <v>0.1591072830916589</v>
@@ -2663,7 +2663,7 @@
         <v>44942</v>
       </c>
       <c r="B207">
-        <v>-0.01573306675062807</v>
+        <v>0.01750594163915614</v>
       </c>
       <c r="C207">
         <v>0.1242578702655175</v>
@@ -2674,7 +2674,7 @@
         <v>44949</v>
       </c>
       <c r="B208">
-        <v>0.01521426796328998</v>
+        <v>-0.01854217179633791</v>
       </c>
       <c r="C208">
         <v>0.01580202474477388</v>
@@ -2685,7 +2685,7 @@
         <v>44956</v>
       </c>
       <c r="B209">
-        <v>-0.02055645257886573</v>
+        <v>0.02189153815587386</v>
       </c>
       <c r="C209">
         <v>0.02336183884961307</v>
@@ -2696,7 +2696,7 @@
         <v>44963</v>
       </c>
       <c r="B210">
-        <v>-0.01048006396215997</v>
+        <v>0.01088575445675196</v>
       </c>
       <c r="C210">
         <v>-0.08129243492347538</v>
@@ -2707,7 +2707,7 @@
         <v>44970</v>
       </c>
       <c r="B211">
-        <v>-0.006570641702303893</v>
+        <v>0.007041069934872405</v>
       </c>
       <c r="C211">
         <v>0.1378515158873512</v>
@@ -2718,7 +2718,7 @@
         <v>44977</v>
       </c>
       <c r="B212">
-        <v>0.01718162303881556</v>
+        <v>-0.01785158900062075</v>
       </c>
       <c r="C212">
         <v>-0.06035469456905018</v>
@@ -2729,7 +2729,7 @@
         <v>44984</v>
       </c>
       <c r="B213">
-        <v>-0.008500242153305962</v>
+        <v>0.00807653810393723</v>
       </c>
       <c r="C213">
         <v>-0.03535470525676154</v>
@@ -2740,7 +2740,7 @@
         <v>44991</v>
       </c>
       <c r="B214">
-        <v>0.006337889204598555</v>
+        <v>-0.006915308685311049</v>
       </c>
       <c r="C214">
         <v>-0.09394224883495761</v>
@@ -2751,7 +2751,7 @@
         <v>44998</v>
       </c>
       <c r="B215">
-        <v>-0.04120399710958496</v>
+        <v>0.04643903068012561</v>
       </c>
       <c r="C215">
         <v>0.2846458753870937</v>
@@ -2762,7 +2762,7 @@
         <v>45005</v>
       </c>
       <c r="B216">
-        <v>-0.02638525996561205</v>
+        <v>0.03024274344656494</v>
       </c>
       <c r="C216">
         <v>0.001847435941032094</v>
@@ -2773,7 +2773,7 @@
         <v>45012</v>
       </c>
       <c r="B217">
-        <v>-0.003191650582633681</v>
+        <v>0.001621544073985828</v>
       </c>
       <c r="C217">
         <v>0.05101360221729201</v>
@@ -2784,7 +2784,7 @@
         <v>45019</v>
       </c>
       <c r="B218">
-        <v>0.01281188405685327</v>
+        <v>-0.01633127020250883</v>
       </c>
       <c r="C218">
         <v>-0.003020405158345452</v>
@@ -2795,7 +2795,7 @@
         <v>45026</v>
       </c>
       <c r="B219">
-        <v>-0.01612493416338624</v>
+        <v>0.01818812482909467</v>
       </c>
       <c r="C219">
         <v>0.0984756225136254</v>
@@ -2806,7 +2806,7 @@
         <v>45033</v>
       </c>
       <c r="B220">
-        <v>0.01093256216288831</v>
+        <v>-0.01273991615056362</v>
       </c>
       <c r="C220">
         <v>-0.1123170541185573</v>
@@ -2817,7 +2817,7 @@
         <v>45040</v>
       </c>
       <c r="B221">
-        <v>-0.0003216341179590495</v>
+        <v>-7.573440388577556e-05</v>
       </c>
       <c r="C221">
         <v>0.05956923513124313</v>
@@ -2828,7 +2828,7 @@
         <v>45047</v>
       </c>
       <c r="B222">
-        <v>0.006941671913737475</v>
+        <v>-0.00857286559197503</v>
       </c>
       <c r="C222">
         <v>0.01775694441995879</v>
@@ -2839,7 +2839,7 @@
         <v>45054</v>
       </c>
       <c r="B223">
-        <v>-0.01350794603574255</v>
+        <v>0.0175972744626088</v>
       </c>
       <c r="C223">
         <v>-0.1036428359015039</v>
@@ -2850,7 +2850,7 @@
         <v>45061</v>
       </c>
       <c r="B224">
-        <v>-0.006097439921377251</v>
+        <v>0.006022747962545127</v>
       </c>
       <c r="C224">
         <v>0.01641124015245676</v>
@@ -2861,7 +2861,7 @@
         <v>45068</v>
       </c>
       <c r="B225">
-        <v>0.0129543379929349</v>
+        <v>-0.01337100471607799</v>
       </c>
       <c r="C225">
         <v>0.001587843348000106</v>
@@ -2872,7 +2872,7 @@
         <v>45075</v>
       </c>
       <c r="B226">
-        <v>-0.002922172552600134</v>
+        <v>0.002320914495618622</v>
       </c>
       <c r="C226">
         <v>0.02557556828810137</v>
@@ -2883,7 +2883,7 @@
         <v>45082</v>
       </c>
       <c r="B227">
-        <v>-0.006291625050126617</v>
+        <v>0.008445480107474465</v>
       </c>
       <c r="C227">
         <v>-0.03627967882352556</v>
@@ -2894,7 +2894,7 @@
         <v>45089</v>
       </c>
       <c r="B228">
-        <v>0.006605898094850942</v>
+        <v>-0.008027105136330311</v>
       </c>
       <c r="C228">
         <v>-0.02507363790127104</v>
@@ -2905,7 +2905,7 @@
         <v>45096</v>
       </c>
       <c r="B229">
-        <v>-0.007290239009920662</v>
+        <v>0.008197403047453205</v>
       </c>
       <c r="C229">
         <v>0.1518652606308846</v>
@@ -2916,7 +2916,7 @@
         <v>45103</v>
       </c>
       <c r="B230">
-        <v>-0.003264586160803297</v>
+        <v>0.003658172044045245</v>
       </c>
       <c r="C230">
         <v>-0.003223295143951366</v>
@@ -2927,7 +2927,7 @@
         <v>45110</v>
       </c>
       <c r="B231">
-        <v>-0.003541757951540724</v>
+        <v>0.002705415302984217</v>
       </c>
       <c r="C231">
         <v>-0.01142402417358912</v>
@@ -2938,7 +2938,7 @@
         <v>45117</v>
       </c>
       <c r="B232">
-        <v>-0.005038515973871997</v>
+        <v>0.005114949732428426</v>
       </c>
       <c r="C232">
         <v>0.005615057021677972</v>
@@ -2949,7 +2949,7 @@
         <v>45124</v>
       </c>
       <c r="B233">
-        <v>0.0131343117959715</v>
+        <v>-0.01518342631615888</v>
       </c>
       <c r="C233">
         <v>-0.008602636273403186</v>
@@ -2960,7 +2960,7 @@
         <v>45131</v>
       </c>
       <c r="B234">
-        <v>-0.01127204806103692</v>
+        <v>0.009917157717559022</v>
       </c>
       <c r="C234">
         <v>-0.01493081153292308</v>
@@ -2971,7 +2971,7 @@
         <v>45138</v>
       </c>
       <c r="B235">
-        <v>-0.01448608612019992</v>
+        <v>0.01513855653848752</v>
       </c>
       <c r="C235">
         <v>-0.01673653157964128</v>
@@ -2982,7 +2982,7 @@
         <v>45145</v>
       </c>
       <c r="B236">
-        <v>-0.004162391441666659</v>
+        <v>0.004293318490886999</v>
       </c>
       <c r="C236">
         <v>0.01059515915522047</v>
@@ -2993,7 +2993,7 @@
         <v>45152</v>
       </c>
       <c r="B237">
-        <v>0.009682548446153218</v>
+        <v>-0.01019728526657895</v>
       </c>
       <c r="C237">
         <v>-0.1106418705368375</v>
@@ -3004,7 +3004,7 @@
         <v>45159</v>
       </c>
       <c r="B238">
-        <v>-0.01981584348045227</v>
+        <v>0.02137105392254784</v>
       </c>
       <c r="C238">
         <v>-0.003147181826986922</v>
@@ -3015,7 +3015,7 @@
         <v>45166</v>
       </c>
       <c r="B239">
-        <v>0.01409541673099389</v>
+        <v>-0.01369278503374621</v>
       </c>
       <c r="C239">
         <v>-0.01024084274247861</v>
@@ -3026,7 +3026,7 @@
         <v>45173</v>
       </c>
       <c r="B240">
-        <v>0.008043434056594752</v>
+        <v>-0.009190603050538145</v>
       </c>
       <c r="C240">
         <v>0.005740603098584707</v>
@@ -3037,7 +3037,7 @@
         <v>45180</v>
       </c>
       <c r="B241">
-        <v>0.001248268502049891</v>
+        <v>-0.0003890968960801105</v>
       </c>
       <c r="C241">
         <v>0.01274186625648444</v>
@@ -3048,7 +3048,7 @@
         <v>45187</v>
       </c>
       <c r="B242">
-        <v>0.002970654860431467</v>
+        <v>-0.004589247867840816</v>
       </c>
       <c r="C242">
         <v>-0.001113844958375187</v>
@@ -3059,7 +3059,7 @@
         <v>45194</v>
       </c>
       <c r="B243">
-        <v>0.009327956988161691</v>
+        <v>-0.01066911533414072</v>
       </c>
       <c r="C243">
         <v>0.02271213062810684</v>
@@ -3070,7 +3070,7 @@
         <v>45201</v>
       </c>
       <c r="B244">
-        <v>-0.007582689105691661</v>
+        <v>0.008506789833008231</v>
       </c>
       <c r="C244">
         <v>0.02481104394966849</v>
@@ -3081,7 +3081,7 @@
         <v>45208</v>
       </c>
       <c r="B245">
-        <v>-0.0127260136656995</v>
+        <v>0.0153832272472269</v>
       </c>
       <c r="C245">
         <v>-0.04651335784901744</v>
@@ -3092,7 +3092,7 @@
         <v>45215</v>
       </c>
       <c r="B246">
-        <v>-0.02078032086171144</v>
+        <v>0.02453001985369384</v>
       </c>
       <c r="C246">
         <v>0.08396160347651005</v>
@@ -3103,7 +3103,7 @@
         <v>45222</v>
       </c>
       <c r="B247">
-        <v>-0.03034170455257378</v>
+        <v>0.03637333677835383</v>
       </c>
       <c r="C247">
         <v>0.1292751054647627</v>
@@ -3114,7 +3114,7 @@
         <v>45229</v>
       </c>
       <c r="B248">
-        <v>0.01885032045058663</v>
+        <v>-0.02088109474020649</v>
       </c>
       <c r="C248">
         <v>0.02834678982251204</v>
@@ -3125,7 +3125,7 @@
         <v>45236</v>
       </c>
       <c r="B249">
-        <v>0.03536808870210181</v>
+        <v>-0.04241191549802879</v>
       </c>
       <c r="C249">
         <v>0.08233435002238543</v>
@@ -3136,7 +3136,7 @@
         <v>45243</v>
       </c>
       <c r="B250">
-        <v>-0.06043927634531134</v>
+        <v>0.06244093371105029</v>
       </c>
       <c r="C250">
         <v>-0.02585198610892725</v>
@@ -3147,7 +3147,7 @@
         <v>45250</v>
       </c>
       <c r="B251">
-        <v>-0.02244439368786463</v>
+        <v>0.02431226803476444</v>
       </c>
       <c r="C251">
         <v>0.04691322060143599</v>
@@ -3158,7 +3158,7 @@
         <v>45257</v>
       </c>
       <c r="B252">
-        <v>-0.0145971132438322</v>
+        <v>0.01637983649343815</v>
       </c>
       <c r="C252">
         <v>0.01533641941080166</v>
@@ -3169,7 +3169,7 @@
         <v>45264</v>
       </c>
       <c r="B253">
-        <v>-0.00338847910869381</v>
+        <v>0.004527587966510199</v>
       </c>
       <c r="C253">
         <v>0.1448179358359638</v>
@@ -3180,7 +3180,7 @@
         <v>45271</v>
       </c>
       <c r="B254">
-        <v>0.01371259999923219</v>
+        <v>-0.01307003355490288</v>
       </c>
       <c r="C254">
         <v>-0.04814342789607884</v>
@@ -3191,7 +3191,7 @@
         <v>45278</v>
       </c>
       <c r="B255">
-        <v>-0.005432772100570213</v>
+        <v>0.008656973116437591</v>
       </c>
       <c r="C255">
         <v>0.03561345601589161</v>
@@ -3202,7 +3202,7 @@
         <v>45285</v>
       </c>
       <c r="B256">
-        <v>0.03249318397879505</v>
+        <v>-0.03578521179204378</v>
       </c>
       <c r="C256">
         <v>-0.03059179351965802</v>
@@ -3213,7 +3213,7 @@
         <v>45292</v>
       </c>
       <c r="B257">
-        <v>0.02185405566921747</v>
+        <v>-0.02153119217346316</v>
       </c>
       <c r="C257">
         <v>0.02089818218301831</v>
@@ -3224,7 +3224,7 @@
         <v>45299</v>
       </c>
       <c r="B258">
-        <v>0.01878269786054962</v>
+        <v>-0.01891362841283068</v>
       </c>
       <c r="C258">
         <v>0.02258705483664114</v>
@@ -3235,7 +3235,7 @@
         <v>45306</v>
       </c>
       <c r="B259">
-        <v>-0.005443750741546367</v>
+        <v>0.005533203399582611</v>
       </c>
       <c r="C259">
         <v>-0.03508921058856629</v>
@@ -3246,7 +3246,7 @@
         <v>45313</v>
       </c>
       <c r="B260">
-        <v>-0.01203997733995004</v>
+        <v>0.01164655632764802</v>
       </c>
       <c r="C260">
         <v>-0.01594264957319458</v>
@@ -3257,7 +3257,7 @@
         <v>45320</v>
       </c>
       <c r="B261">
-        <v>0.02107544716738728</v>
+        <v>-0.02059526355187164</v>
       </c>
       <c r="C261">
         <v>0.02219249583575067</v>
@@ -3268,7 +3268,7 @@
         <v>45327</v>
       </c>
       <c r="B262">
-        <v>-0.002705765728419185</v>
+        <v>0.001662884180307651</v>
       </c>
       <c r="C262">
         <v>0.09592606980994178</v>
@@ -3279,7 +3279,7 @@
         <v>45334</v>
       </c>
       <c r="B263">
-        <v>-0.0002384925497673945</v>
+        <v>0.0004871205618970425</v>
       </c>
       <c r="C263">
         <v>0.09865194714623815</v>
@@ -3290,7 +3290,7 @@
         <v>45341</v>
       </c>
       <c r="B264">
-        <v>0.01868027353647102</v>
+        <v>-0.02306066314516588</v>
       </c>
       <c r="C264">
         <v>-3.273451302721053e-05</v>
@@ -3301,7 +3301,7 @@
         <v>45348</v>
       </c>
       <c r="B265">
-        <v>0.004341530174017651</v>
+        <v>-0.002573118443242229</v>
       </c>
       <c r="C265">
         <v>0.2110065963347592</v>
@@ -3312,7 +3312,7 @@
         <v>45355</v>
       </c>
       <c r="B266">
-        <v>-0.02752285199949176</v>
+        <v>0.0349045246486351</v>
       </c>
       <c r="C266">
         <v>0.1111221800416156</v>
@@ -3323,7 +3323,7 @@
         <v>45362</v>
       </c>
       <c r="B267">
-        <v>0.0676738097386539</v>
+        <v>-0.07003192024344346</v>
       </c>
       <c r="C267">
         <v>0.02271012846703813</v>
